--- a/cal template.xlsx
+++ b/cal template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA60816-A7F0-4789-BF63-90BECE7F0732}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DD7ABE-2E57-4D41-A0A0-19FD6686EC2E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cal new slayer mobile 16 to 9" sheetId="1" r:id="rId1"/>
+    <sheet name="calibration" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,18 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="46">
-  <si>
-    <t>az_sect</t>
-  </si>
-  <si>
-    <t>alt_sect</t>
-  </si>
-  <si>
-    <t>az_rel</t>
-  </si>
-  <si>
-    <t>alt_rel</t>
-  </si>
   <si>
     <t>rec_x</t>
   </si>
@@ -52,22 +40,10 @@
     <t>out2</t>
   </si>
   <si>
-    <t>az_total</t>
-  </si>
-  <si>
-    <t>alt_total</t>
-  </si>
-  <si>
     <t>px_x</t>
   </si>
   <si>
     <t>px_y</t>
-  </si>
-  <si>
-    <t>az</t>
-  </si>
-  <si>
-    <t>alt</t>
   </si>
   <si>
     <t>camera_name</t>
@@ -130,9 +106,6 @@
     <t>target_right</t>
   </si>
   <si>
-    <t>target_pos_azalt_relaim</t>
-  </si>
-  <si>
     <t>target_center_calculated_from_edges</t>
   </si>
   <si>
@@ -158,6 +131,33 @@
   </si>
   <si>
     <t>rotation_error_h_and_px_delta</t>
+  </si>
+  <si>
+    <t>xsph_sect</t>
+  </si>
+  <si>
+    <t>ysph_sect</t>
+  </si>
+  <si>
+    <t>xsph_rel</t>
+  </si>
+  <si>
+    <t>target_pos_xysph_relaim</t>
+  </si>
+  <si>
+    <t>ysph_rel</t>
+  </si>
+  <si>
+    <t>xsph_total</t>
+  </si>
+  <si>
+    <t>ysph_total</t>
+  </si>
+  <si>
+    <t>xsph</t>
+  </si>
+  <si>
+    <t>ysph</t>
   </si>
 </sst>
 </file>
@@ -1032,14 +1032,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P592"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
@@ -1047,58 +1047,57 @@
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1109,7 +1108,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1129,7 +1128,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
@@ -1149,7 +1148,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
@@ -1169,7 +1168,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1189,7 +1188,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1209,7 +1208,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -1229,7 +1228,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -1249,7 +1248,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -1269,7 +1268,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -1289,7 +1288,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1321,10 +1320,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1351,10 +1350,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1381,10 +1380,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1411,10 +1410,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1441,10 +1440,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1471,10 +1470,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1501,10 +1500,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1531,10 +1530,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1561,10 +1560,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1591,10 +1590,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1621,10 +1620,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1651,10 +1650,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1681,10 +1680,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1711,10 +1710,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1741,10 +1740,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1771,10 +1770,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1801,10 +1800,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1831,10 +1830,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1861,10 +1860,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1891,7 +1890,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1919,7 +1918,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1947,7 +1946,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1975,7 +1974,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2003,7 +2002,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2031,7 +2030,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2059,7 +2058,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2087,7 +2086,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2115,7 +2114,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2143,7 +2142,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2171,7 +2170,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2199,10 +2198,10 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2229,10 +2228,10 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2259,10 +2258,10 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2289,10 +2288,10 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2319,10 +2318,10 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2349,10 +2348,10 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2379,10 +2378,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2409,10 +2408,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2439,10 +2438,10 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2469,10 +2468,10 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2499,10 +2498,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2529,10 +2528,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2559,10 +2558,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2589,10 +2588,10 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2619,10 +2618,10 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2649,10 +2648,10 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2679,10 +2678,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2709,10 +2708,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2739,7 +2738,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2767,7 +2766,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2795,7 +2794,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2823,7 +2822,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2851,7 +2850,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2879,7 +2878,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2907,7 +2906,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2935,7 +2934,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2963,7 +2962,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2991,7 +2990,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3019,7 +3018,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3047,10 +3046,10 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3077,10 +3076,10 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3107,10 +3106,10 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3137,10 +3136,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3167,10 +3166,10 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3197,10 +3196,10 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3227,10 +3226,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3257,10 +3256,10 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3287,10 +3286,10 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3317,10 +3316,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3347,10 +3346,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3377,10 +3376,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3407,10 +3406,10 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3437,10 +3436,10 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3467,10 +3466,10 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3497,10 +3496,10 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3527,10 +3526,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3557,10 +3556,10 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3587,7 +3586,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3615,7 +3614,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3643,7 +3642,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3671,7 +3670,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3699,7 +3698,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3727,7 +3726,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3755,7 +3754,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3783,7 +3782,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3811,7 +3810,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3839,7 +3838,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3867,7 +3866,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3895,10 +3894,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3925,10 +3924,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3955,10 +3954,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3985,10 +3984,10 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4015,10 +4014,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4045,10 +4044,10 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4075,10 +4074,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4105,10 +4104,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4135,10 +4134,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4165,10 +4164,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4195,10 +4194,10 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4225,10 +4224,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4255,10 +4254,10 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4285,10 +4284,10 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4315,10 +4314,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4345,10 +4344,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4375,10 +4374,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4405,10 +4404,10 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4435,7 +4434,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4463,7 +4462,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4491,7 +4490,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4519,7 +4518,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4547,7 +4546,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4575,7 +4574,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4603,7 +4602,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4631,7 +4630,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4659,7 +4658,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4687,7 +4686,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4715,7 +4714,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4743,10 +4742,10 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4773,10 +4772,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4803,10 +4802,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4833,10 +4832,10 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4863,10 +4862,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4893,10 +4892,10 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4923,10 +4922,10 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4953,10 +4952,10 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4983,10 +4982,10 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -5013,10 +5012,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -5043,10 +5042,10 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -5073,10 +5072,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5103,10 +5102,10 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5133,10 +5132,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5163,10 +5162,10 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5193,10 +5192,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5223,10 +5222,10 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5253,10 +5252,10 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5283,7 +5282,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5311,7 +5310,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5339,7 +5338,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5367,7 +5366,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5395,7 +5394,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5423,7 +5422,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5451,7 +5450,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5479,7 +5478,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5507,7 +5506,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5535,7 +5534,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5563,7 +5562,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5591,10 +5590,10 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5621,10 +5620,10 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5651,10 +5650,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5681,10 +5680,10 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5711,10 +5710,10 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5741,10 +5740,10 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5771,10 +5770,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5801,10 +5800,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5831,10 +5830,10 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5861,10 +5860,10 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5891,10 +5890,10 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5921,10 +5920,10 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5951,10 +5950,10 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5981,10 +5980,10 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -6011,10 +6010,10 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -6041,10 +6040,10 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6071,10 +6070,10 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -6101,10 +6100,10 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -6131,7 +6130,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6159,7 +6158,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6187,7 +6186,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6215,7 +6214,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6243,7 +6242,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6271,7 +6270,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6299,7 +6298,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6327,7 +6326,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6355,7 +6354,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6383,7 +6382,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6411,7 +6410,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6439,10 +6438,10 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6469,10 +6468,10 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6499,10 +6498,10 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6529,10 +6528,10 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6559,10 +6558,10 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6589,10 +6588,10 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6619,10 +6618,10 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6649,10 +6648,10 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6679,10 +6678,10 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6709,10 +6708,10 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6739,10 +6738,10 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6769,10 +6768,10 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6799,10 +6798,10 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6829,10 +6828,10 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6859,10 +6858,10 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6889,10 +6888,10 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6919,10 +6918,10 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6949,10 +6948,10 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -6979,7 +6978,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -7007,7 +7006,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7035,7 +7034,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7063,7 +7062,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7091,7 +7090,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7119,7 +7118,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7147,7 +7146,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7175,7 +7174,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7203,7 +7202,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7231,7 +7230,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7259,7 +7258,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7287,10 +7286,10 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -7317,10 +7316,10 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -7347,10 +7346,10 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7377,10 +7376,10 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7407,10 +7406,10 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7437,10 +7436,10 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7467,10 +7466,10 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7497,10 +7496,10 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7527,10 +7526,10 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -7557,10 +7556,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -7587,10 +7586,10 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -7617,10 +7616,10 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -7647,10 +7646,10 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -7677,10 +7676,10 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -7707,10 +7706,10 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -7737,10 +7736,10 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -7767,10 +7766,10 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -7797,10 +7796,10 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -7827,7 +7826,7 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7855,7 +7854,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7883,7 +7882,7 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7911,7 +7910,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7939,7 +7938,7 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7967,7 +7966,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7995,7 +7994,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8023,7 +8022,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8051,7 +8050,7 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8079,7 +8078,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8107,7 +8106,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -8135,10 +8134,10 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -8165,10 +8164,10 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -8195,10 +8194,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -8225,10 +8224,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8255,10 +8254,10 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -8285,10 +8284,10 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -8315,10 +8314,10 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -8345,10 +8344,10 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8375,10 +8374,10 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -8405,10 +8404,10 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8435,10 +8434,10 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8465,10 +8464,10 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8495,10 +8494,10 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8525,10 +8524,10 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -8555,10 +8554,10 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -8585,10 +8584,10 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8615,10 +8614,10 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -8645,10 +8644,10 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -8675,7 +8674,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -8703,7 +8702,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -8731,7 +8730,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -8759,7 +8758,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -8787,7 +8786,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -8815,7 +8814,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -8843,7 +8842,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -8871,7 +8870,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -8899,7 +8898,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -8927,7 +8926,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -8955,7 +8954,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -8983,10 +8982,10 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -9013,10 +9012,10 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -9043,10 +9042,10 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -9073,10 +9072,10 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -9103,10 +9102,10 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -9133,10 +9132,10 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9163,10 +9162,10 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -9193,10 +9192,10 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H281" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9223,10 +9222,10 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -9253,10 +9252,10 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9283,10 +9282,10 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -9313,10 +9312,10 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -9343,10 +9342,10 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9373,10 +9372,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9403,10 +9402,10 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -9433,10 +9432,10 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9463,10 +9462,10 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9493,10 +9492,10 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -9523,7 +9522,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -9551,7 +9550,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9579,7 +9578,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -9607,7 +9606,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -9635,7 +9634,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -9663,7 +9662,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -9691,7 +9690,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -9719,7 +9718,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -9747,7 +9746,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -9775,7 +9774,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -9803,7 +9802,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -9831,10 +9830,10 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -9861,10 +9860,10 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -9891,10 +9890,10 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9921,10 +9920,10 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -9951,10 +9950,10 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9981,10 +9980,10 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -10011,10 +10010,10 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -10041,10 +10040,10 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H310" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -10071,10 +10070,10 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -10101,10 +10100,10 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H312" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -10131,10 +10130,10 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -10161,10 +10160,10 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -10191,10 +10190,10 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -10221,10 +10220,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -10251,10 +10250,10 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -10281,10 +10280,10 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -10311,10 +10310,10 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -10341,10 +10340,10 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -10371,7 +10370,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10399,7 +10398,7 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10427,7 +10426,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10455,7 +10454,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -10483,7 +10482,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -10511,7 +10510,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -10539,7 +10538,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10567,7 +10566,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -10595,7 +10594,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -10623,7 +10622,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -10651,7 +10650,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -10679,10 +10678,10 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -10709,10 +10708,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10739,10 +10738,10 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -10769,10 +10768,10 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10799,10 +10798,10 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -10829,10 +10828,10 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -10859,10 +10858,10 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -10889,10 +10888,10 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -10919,10 +10918,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10949,10 +10948,10 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H341" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -10979,10 +10978,10 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -11009,10 +11008,10 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -11039,10 +11038,10 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -11069,10 +11068,10 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -11099,10 +11098,10 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -11129,10 +11128,10 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -11159,10 +11158,10 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -11189,10 +11188,10 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -11219,7 +11218,7 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11247,7 +11246,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11275,7 +11274,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11303,7 +11302,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11331,7 +11330,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11359,7 +11358,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11387,7 +11386,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11415,7 +11414,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11443,7 +11442,7 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11471,7 +11470,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -11499,7 +11498,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -11527,10 +11526,10 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -11557,10 +11556,10 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -11587,10 +11586,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -11617,10 +11616,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -11647,10 +11646,10 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -11677,10 +11676,10 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -11707,10 +11706,10 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -11737,10 +11736,10 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -11767,10 +11766,10 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -11797,10 +11796,10 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H370" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -11827,10 +11826,10 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -11857,10 +11856,10 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -11887,10 +11886,10 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -11917,10 +11916,10 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -11947,10 +11946,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11977,10 +11976,10 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12007,10 +12006,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -12037,10 +12036,10 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -12067,7 +12066,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12095,7 +12094,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12123,7 +12122,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12151,7 +12150,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12179,7 +12178,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12207,7 +12206,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12235,7 +12234,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12263,7 +12262,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12291,7 +12290,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12319,7 +12318,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12347,7 +12346,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -12375,10 +12374,10 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -12405,10 +12404,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -12435,10 +12434,10 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -12465,10 +12464,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -12495,10 +12494,10 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -12525,10 +12524,10 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -12555,10 +12554,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -12585,10 +12584,10 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H397" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -12615,10 +12614,10 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -12645,10 +12644,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -12675,10 +12674,10 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -12705,10 +12704,10 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -12735,10 +12734,10 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -12765,10 +12764,10 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -12795,10 +12794,10 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -12825,10 +12824,10 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -12855,10 +12854,10 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -12885,10 +12884,10 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -12915,7 +12914,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -12943,7 +12942,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -12971,7 +12970,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -12999,7 +12998,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -13027,7 +13026,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -13055,7 +13054,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13083,7 +13082,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13111,7 +13110,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13139,7 +13138,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13167,7 +13166,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13195,7 +13194,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -13223,10 +13222,10 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -13253,10 +13252,10 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -13283,10 +13282,10 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -13313,10 +13312,10 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -13343,10 +13342,10 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -13373,10 +13372,10 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -13403,10 +13402,10 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -13433,10 +13432,10 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H426" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H426" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -13463,10 +13462,10 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -13493,10 +13492,10 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H428" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -13523,10 +13522,10 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -13553,10 +13552,10 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -13583,10 +13582,10 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -13613,10 +13612,10 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -13643,10 +13642,10 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -13673,10 +13672,10 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -13703,10 +13702,10 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -13733,10 +13732,10 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -13763,7 +13762,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
@@ -13791,7 +13790,7 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
@@ -13819,7 +13818,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
@@ -13847,7 +13846,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
@@ -13875,7 +13874,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
@@ -13903,7 +13902,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -13931,7 +13930,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -13959,7 +13958,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -13987,7 +13986,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -14015,7 +14014,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
@@ -14043,7 +14042,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
@@ -14071,10 +14070,10 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -14101,10 +14100,10 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -14131,10 +14130,10 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -14161,10 +14160,10 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -14191,10 +14190,10 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -14221,10 +14220,10 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -14251,10 +14250,10 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -14281,10 +14280,10 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H455" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -14311,10 +14310,10 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -14341,10 +14340,10 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H457" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H457" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -14371,10 +14370,10 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -14401,10 +14400,10 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -14431,10 +14430,10 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -14461,10 +14460,10 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -14491,10 +14490,10 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -14521,10 +14520,10 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -14551,10 +14550,10 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -14581,10 +14580,10 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -14611,7 +14610,7 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
@@ -14639,7 +14638,7 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
@@ -14667,7 +14666,7 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -14695,7 +14694,7 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -14723,7 +14722,7 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
@@ -14751,7 +14750,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
@@ -14779,7 +14778,7 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -14807,7 +14806,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -14835,7 +14834,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -14863,7 +14862,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -14891,7 +14890,7 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
@@ -14919,10 +14918,10 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -14949,10 +14948,10 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -14979,10 +14978,10 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -15009,10 +15008,10 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -15039,10 +15038,10 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -15069,10 +15068,10 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -15099,10 +15098,10 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -15129,10 +15128,10 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H484" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H484" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -15159,10 +15158,10 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -15189,10 +15188,10 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H486" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H486" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -15219,10 +15218,10 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -15249,10 +15248,10 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -15279,10 +15278,10 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -15309,10 +15308,10 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -15339,10 +15338,10 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -15369,10 +15368,10 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -15399,10 +15398,10 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -15429,10 +15428,10 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -15459,7 +15458,7 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -15487,7 +15486,7 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -15515,7 +15514,7 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -15543,7 +15542,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -15571,7 +15570,7 @@
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -15599,7 +15598,7 @@
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -15627,7 +15626,7 @@
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -15655,7 +15654,7 @@
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -15683,7 +15682,7 @@
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -15711,7 +15710,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -15739,7 +15738,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
@@ -15767,10 +15766,10 @@
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -15797,10 +15796,10 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -15827,10 +15826,10 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -15857,10 +15856,10 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -15887,10 +15886,10 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -15917,10 +15916,10 @@
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -15947,10 +15946,10 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -15977,10 +15976,10 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H513" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H513" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -16007,10 +16006,10 @@
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -16037,10 +16036,10 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H515" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H515" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -16067,10 +16066,10 @@
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -16097,10 +16096,10 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -16127,10 +16126,10 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -16157,10 +16156,10 @@
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -16187,10 +16186,10 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -16217,10 +16216,10 @@
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -16247,10 +16246,10 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -16277,10 +16276,10 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -16307,7 +16306,7 @@
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
@@ -16335,7 +16334,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
@@ -16363,7 +16362,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -16391,7 +16390,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -16419,7 +16418,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
@@ -16447,7 +16446,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
@@ -16475,7 +16474,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
@@ -16503,7 +16502,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
@@ -16531,7 +16530,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
@@ -16559,7 +16558,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
@@ -16587,7 +16586,7 @@
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
@@ -16615,10 +16614,10 @@
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -16645,10 +16644,10 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -16675,10 +16674,10 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -16705,10 +16704,10 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -16735,10 +16734,10 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -16765,10 +16764,10 @@
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -16795,10 +16794,10 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -16825,10 +16824,10 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H542" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H542" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -16855,10 +16854,10 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -16885,10 +16884,10 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H544" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H544" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -16915,10 +16914,10 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -16945,10 +16944,10 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -16975,10 +16974,10 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -17005,10 +17004,10 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -17035,10 +17034,10 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -17065,10 +17064,10 @@
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -17095,10 +17094,10 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -17125,10 +17124,10 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -17155,7 +17154,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
@@ -17183,7 +17182,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
@@ -17211,7 +17210,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
@@ -17239,7 +17238,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
@@ -17267,7 +17266,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
@@ -17295,7 +17294,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
@@ -17323,7 +17322,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
@@ -17351,7 +17350,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
@@ -17379,7 +17378,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
@@ -17407,7 +17406,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
@@ -17435,7 +17434,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
@@ -17463,10 +17462,10 @@
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -17493,10 +17492,10 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -17523,10 +17522,10 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -17553,10 +17552,10 @@
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -17583,10 +17582,10 @@
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -17613,10 +17612,10 @@
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -17643,10 +17642,10 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -17673,10 +17672,10 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H571" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H571" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -17703,10 +17702,10 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -17733,10 +17732,10 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H573" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H573" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -17763,10 +17762,10 @@
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -17793,10 +17792,10 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -17823,10 +17822,10 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -17853,10 +17852,10 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -17883,10 +17882,10 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -17913,10 +17912,10 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -17943,10 +17942,10 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -17973,10 +17972,10 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -18003,7 +18002,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
@@ -18031,7 +18030,7 @@
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
@@ -18059,7 +18058,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
@@ -18087,7 +18086,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
@@ -18115,7 +18114,7 @@
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
@@ -18143,7 +18142,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
@@ -18171,7 +18170,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
@@ -18199,7 +18198,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
@@ -18227,7 +18226,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
@@ -18255,7 +18254,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
@@ -18283,7 +18282,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>

--- a/cal template.xlsx
+++ b/cal template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DD7ABE-2E57-4D41-A0A0-19FD6686EC2E}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2490F905-18C3-4BE1-9684-29AC6544A8B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="46">
   <si>
-    <t>rec_x</t>
-  </si>
-  <si>
-    <t>rec_y</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -38,12 +32,6 @@
   </si>
   <si>
     <t>out2</t>
-  </si>
-  <si>
-    <t>px_x</t>
-  </si>
-  <si>
-    <t>px_y</t>
   </si>
   <si>
     <t>camera_name</t>
@@ -133,31 +121,43 @@
     <t>rotation_error_h_and_px_delta</t>
   </si>
   <si>
-    <t>xsph_sect</t>
+    <t>x_px</t>
   </si>
   <si>
-    <t>ysph_sect</t>
+    <t>y_px</t>
   </si>
   <si>
-    <t>xsph_rel</t>
+    <t>xang_sect</t>
   </si>
   <si>
-    <t>target_pos_xysph_relaim</t>
+    <t>yang_sect</t>
   </si>
   <si>
-    <t>ysph_rel</t>
+    <t>xang_rel</t>
   </si>
   <si>
-    <t>xsph_total</t>
+    <t>yang_rel</t>
   </si>
   <si>
-    <t>ysph_total</t>
+    <t>x_rec</t>
   </si>
   <si>
-    <t>xsph</t>
+    <t>xang_total</t>
   </si>
   <si>
-    <t>ysph</t>
+    <t>yang_total</t>
+  </si>
+  <si>
+    <t>xang</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>target_pos_xyangs_relaim</t>
+  </si>
+  <si>
+    <t>y_rec</t>
   </si>
 </sst>
 </file>
@@ -1033,71 +1033,69 @@
   <dimension ref="A1:P592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1108,7 +1106,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
@@ -1128,7 +1126,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
@@ -1148,7 +1146,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
@@ -1168,7 +1166,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -1188,7 +1186,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1208,7 +1206,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -1228,7 +1226,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -1248,7 +1246,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -1268,7 +1266,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -1288,7 +1286,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -1320,10 +1318,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1350,10 +1348,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1380,10 +1378,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1410,10 +1408,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1440,10 +1438,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1470,10 +1468,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1500,10 +1498,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1530,10 +1528,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1560,10 +1558,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1590,10 +1588,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1620,10 +1618,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1650,10 +1648,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1680,10 +1678,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1710,10 +1708,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1740,10 +1738,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1770,10 +1768,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1800,10 +1798,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1830,10 +1828,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1860,10 +1858,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1890,7 +1888,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1918,7 +1916,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1946,7 +1944,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1974,7 +1972,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2002,7 +2000,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2030,7 +2028,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2058,7 +2056,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2086,7 +2084,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2114,7 +2112,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2142,7 +2140,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2170,7 +2168,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2198,10 +2196,10 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2228,10 +2226,10 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2258,10 +2256,10 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2288,10 +2286,10 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2318,10 +2316,10 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2348,10 +2346,10 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2378,10 +2376,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2408,10 +2406,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2438,10 +2436,10 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2468,10 +2466,10 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2498,10 +2496,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2528,10 +2526,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2558,10 +2556,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2588,10 +2586,10 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2618,10 +2616,10 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2648,10 +2646,10 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2678,10 +2676,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2708,10 +2706,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2738,7 +2736,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2766,7 +2764,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2794,7 +2792,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2822,7 +2820,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2850,7 +2848,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2878,7 +2876,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2906,7 +2904,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2934,7 +2932,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2962,7 +2960,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2990,7 +2988,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3018,7 +3016,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3046,10 +3044,10 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3076,10 +3074,10 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3106,10 +3104,10 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3136,10 +3134,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3166,10 +3164,10 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3196,10 +3194,10 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3226,10 +3224,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3256,10 +3254,10 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3286,10 +3284,10 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3316,10 +3314,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3346,10 +3344,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3376,10 +3374,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3406,10 +3404,10 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3436,10 +3434,10 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3466,10 +3464,10 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3496,10 +3494,10 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3526,10 +3524,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3556,10 +3554,10 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3586,7 +3584,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3614,7 +3612,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3642,7 +3640,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3670,7 +3668,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3698,7 +3696,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3726,7 +3724,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3754,7 +3752,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3782,7 +3780,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3810,7 +3808,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3838,7 +3836,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3866,7 +3864,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3894,10 +3892,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3924,10 +3922,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3954,10 +3952,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3984,10 +3982,10 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4014,10 +4012,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4044,10 +4042,10 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4074,10 +4072,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4104,10 +4102,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4134,10 +4132,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4164,10 +4162,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4194,10 +4192,10 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4224,10 +4222,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4254,10 +4252,10 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4284,10 +4282,10 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4314,10 +4312,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4344,10 +4342,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4374,10 +4372,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4404,10 +4402,10 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4434,7 +4432,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4462,7 +4460,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4490,7 +4488,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4518,7 +4516,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4546,7 +4544,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4574,7 +4572,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4602,7 +4600,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4630,7 +4628,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4658,7 +4656,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4686,7 +4684,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4714,7 +4712,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4742,10 +4740,10 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -4772,10 +4770,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4802,10 +4800,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4832,10 +4830,10 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4862,10 +4860,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4892,10 +4890,10 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4922,10 +4920,10 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4952,10 +4950,10 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4982,10 +4980,10 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -5012,10 +5010,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -5042,10 +5040,10 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -5072,10 +5070,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5102,10 +5100,10 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5132,10 +5130,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5162,10 +5160,10 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5192,10 +5190,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5222,10 +5220,10 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5252,10 +5250,10 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5282,7 +5280,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5310,7 +5308,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5338,7 +5336,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5366,7 +5364,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5394,7 +5392,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5422,7 +5420,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5450,7 +5448,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5478,7 +5476,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5506,7 +5504,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5534,7 +5532,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5562,7 +5560,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5590,10 +5588,10 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5620,10 +5618,10 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5650,10 +5648,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5680,10 +5678,10 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5710,10 +5708,10 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5740,10 +5738,10 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5770,10 +5768,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5800,10 +5798,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5830,10 +5828,10 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5860,10 +5858,10 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5890,10 +5888,10 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5920,10 +5918,10 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5950,10 +5948,10 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5980,10 +5978,10 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -6010,10 +6008,10 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -6040,10 +6038,10 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6070,10 +6068,10 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -6100,10 +6098,10 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -6130,7 +6128,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6158,7 +6156,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6186,7 +6184,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6214,7 +6212,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6242,7 +6240,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6270,7 +6268,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6298,7 +6296,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6326,7 +6324,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6354,7 +6352,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6382,7 +6380,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6410,7 +6408,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6438,10 +6436,10 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6468,10 +6466,10 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6498,10 +6496,10 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6528,10 +6526,10 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6558,10 +6556,10 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6588,10 +6586,10 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6618,10 +6616,10 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6648,10 +6646,10 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6678,10 +6676,10 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6708,10 +6706,10 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6738,10 +6736,10 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6768,10 +6766,10 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6798,10 +6796,10 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6828,10 +6826,10 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6858,10 +6856,10 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6888,10 +6886,10 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6918,10 +6916,10 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6948,10 +6946,10 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -6978,7 +6976,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -7006,7 +7004,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7034,7 +7032,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7062,7 +7060,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7090,7 +7088,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7118,7 +7116,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7146,7 +7144,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7174,7 +7172,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7202,7 +7200,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7230,7 +7228,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7258,7 +7256,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7286,10 +7284,10 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -7316,10 +7314,10 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -7346,10 +7344,10 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7376,10 +7374,10 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7406,10 +7404,10 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7436,10 +7434,10 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7466,10 +7464,10 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7496,10 +7494,10 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7526,10 +7524,10 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -7556,10 +7554,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -7586,10 +7584,10 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -7616,10 +7614,10 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -7646,10 +7644,10 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -7676,10 +7674,10 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -7706,10 +7704,10 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -7736,10 +7734,10 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -7766,10 +7764,10 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -7796,10 +7794,10 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -7826,7 +7824,7 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7854,7 +7852,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7882,7 +7880,7 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7910,7 +7908,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7938,7 +7936,7 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7966,7 +7964,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7994,7 +7992,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8022,7 +8020,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8050,7 +8048,7 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8078,7 +8076,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8106,7 +8104,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -8134,10 +8132,10 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -8164,10 +8162,10 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -8194,10 +8192,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -8224,10 +8222,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8254,10 +8252,10 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H249" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -8284,10 +8282,10 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -8314,10 +8312,10 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -8344,10 +8342,10 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8374,10 +8372,10 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -8404,10 +8402,10 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8434,10 +8432,10 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8464,10 +8462,10 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8494,10 +8492,10 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8524,10 +8522,10 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -8554,10 +8552,10 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -8584,10 +8582,10 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8614,10 +8612,10 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -8644,10 +8642,10 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -8674,7 +8672,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -8702,7 +8700,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -8730,7 +8728,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -8758,7 +8756,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -8786,7 +8784,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -8814,7 +8812,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -8842,7 +8840,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -8870,7 +8868,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -8898,7 +8896,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -8926,7 +8924,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -8954,7 +8952,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -8982,10 +8980,10 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -9012,10 +9010,10 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -9042,10 +9040,10 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -9072,10 +9070,10 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -9102,10 +9100,10 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H278" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -9132,10 +9130,10 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9162,10 +9160,10 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -9192,10 +9190,10 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9222,10 +9220,10 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -9252,10 +9250,10 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9282,10 +9280,10 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -9312,10 +9310,10 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -9342,10 +9340,10 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9372,10 +9370,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9402,10 +9400,10 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -9432,10 +9430,10 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9462,10 +9460,10 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9492,10 +9490,10 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -9522,7 +9520,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -9550,7 +9548,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9578,7 +9576,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -9606,7 +9604,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -9634,7 +9632,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -9662,7 +9660,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -9690,7 +9688,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -9718,7 +9716,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -9746,7 +9744,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -9774,7 +9772,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -9802,7 +9800,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -9830,10 +9828,10 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -9860,10 +9858,10 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -9890,10 +9888,10 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9920,10 +9918,10 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -9950,10 +9948,10 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9980,10 +9978,10 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -10010,10 +10008,10 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -10040,10 +10038,10 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -10070,10 +10068,10 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -10100,10 +10098,10 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -10130,10 +10128,10 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -10160,10 +10158,10 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -10190,10 +10188,10 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -10220,10 +10218,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -10250,10 +10248,10 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -10280,10 +10278,10 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -10310,10 +10308,10 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -10340,10 +10338,10 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -10370,7 +10368,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10398,7 +10396,7 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10426,7 +10424,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10454,7 +10452,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -10482,7 +10480,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -10510,7 +10508,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -10538,7 +10536,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10566,7 +10564,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -10594,7 +10592,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -10622,7 +10620,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -10650,7 +10648,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -10678,10 +10676,10 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -10708,10 +10706,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10738,10 +10736,10 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -10768,10 +10766,10 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10798,10 +10796,10 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -10828,10 +10826,10 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -10858,10 +10856,10 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -10888,10 +10886,10 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -10918,10 +10916,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10948,10 +10946,10 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -10978,10 +10976,10 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -11008,10 +11006,10 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -11038,10 +11036,10 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -11068,10 +11066,10 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -11098,10 +11096,10 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -11128,10 +11126,10 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -11158,10 +11156,10 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -11188,10 +11186,10 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -11218,7 +11216,7 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11246,7 +11244,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11274,7 +11272,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11302,7 +11300,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11330,7 +11328,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11358,7 +11356,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11386,7 +11384,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11414,7 +11412,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11442,7 +11440,7 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11470,7 +11468,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -11498,7 +11496,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -11526,10 +11524,10 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -11556,10 +11554,10 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -11586,10 +11584,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -11616,10 +11614,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -11646,10 +11644,10 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H365" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -11676,10 +11674,10 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -11706,10 +11704,10 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -11736,10 +11734,10 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -11766,10 +11764,10 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -11796,10 +11794,10 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -11826,10 +11824,10 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -11856,10 +11854,10 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -11886,10 +11884,10 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -11916,10 +11914,10 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -11946,10 +11944,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11976,10 +11974,10 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12006,10 +12004,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -12036,10 +12034,10 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -12066,7 +12064,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12094,7 +12092,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12122,7 +12120,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12150,7 +12148,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12178,7 +12176,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12206,7 +12204,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12234,7 +12232,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12262,7 +12260,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12290,7 +12288,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12318,7 +12316,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12346,7 +12344,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -12374,10 +12372,10 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -12404,10 +12402,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -12434,10 +12432,10 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -12464,10 +12462,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -12494,10 +12492,10 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -12524,10 +12522,10 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -12554,10 +12552,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -12584,10 +12582,10 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -12614,10 +12612,10 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -12644,10 +12642,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -12674,10 +12672,10 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -12704,10 +12702,10 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -12734,10 +12732,10 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -12764,10 +12762,10 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -12794,10 +12792,10 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -12824,10 +12822,10 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -12854,10 +12852,10 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -12884,10 +12882,10 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -12914,7 +12912,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -12942,7 +12940,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -12970,7 +12968,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -12998,7 +12996,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -13026,7 +13024,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -13054,7 +13052,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13082,7 +13080,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13110,7 +13108,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13138,7 +13136,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13166,7 +13164,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13194,7 +13192,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -13222,10 +13220,10 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -13252,10 +13250,10 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -13282,10 +13280,10 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -13312,10 +13310,10 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -13342,10 +13340,10 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H423" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -13372,10 +13370,10 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -13402,10 +13400,10 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -13432,10 +13430,10 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -13462,10 +13460,10 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -13492,10 +13490,10 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -13522,10 +13520,10 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -13552,10 +13550,10 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -13582,10 +13580,10 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -13612,10 +13610,10 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -13642,10 +13640,10 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -13672,10 +13670,10 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -13702,10 +13700,10 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -13732,10 +13730,10 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -13762,7 +13760,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
@@ -13790,7 +13788,7 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
@@ -13818,7 +13816,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
@@ -13846,7 +13844,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
@@ -13874,7 +13872,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
@@ -13902,7 +13900,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -13930,7 +13928,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -13958,7 +13956,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -13986,7 +13984,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -14014,7 +14012,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
@@ -14042,7 +14040,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
@@ -14070,10 +14068,10 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -14100,10 +14098,10 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -14130,10 +14128,10 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -14160,10 +14158,10 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -14190,10 +14188,10 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H452" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -14220,10 +14218,10 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -14250,10 +14248,10 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -14280,10 +14278,10 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -14310,10 +14308,10 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -14340,10 +14338,10 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -14370,10 +14368,10 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -14400,10 +14398,10 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -14430,10 +14428,10 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -14460,10 +14458,10 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -14490,10 +14488,10 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -14520,10 +14518,10 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -14550,10 +14548,10 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -14580,10 +14578,10 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -14610,7 +14608,7 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
@@ -14638,7 +14636,7 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
@@ -14666,7 +14664,7 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -14694,7 +14692,7 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -14722,7 +14720,7 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
@@ -14750,7 +14748,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
@@ -14778,7 +14776,7 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -14806,7 +14804,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -14834,7 +14832,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -14862,7 +14860,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -14890,7 +14888,7 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
@@ -14918,10 +14916,10 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -14948,10 +14946,10 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -14978,10 +14976,10 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -15008,10 +15006,10 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -15038,10 +15036,10 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H481" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H481" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -15068,10 +15066,10 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -15098,10 +15096,10 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -15128,10 +15126,10 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -15158,10 +15156,10 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -15188,10 +15186,10 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -15218,10 +15216,10 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -15248,10 +15246,10 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -15278,10 +15276,10 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -15308,10 +15306,10 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -15338,10 +15336,10 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -15368,10 +15366,10 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -15398,10 +15396,10 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -15428,10 +15426,10 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -15458,7 +15456,7 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -15486,7 +15484,7 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -15514,7 +15512,7 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -15542,7 +15540,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -15570,7 +15568,7 @@
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -15598,7 +15596,7 @@
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -15626,7 +15624,7 @@
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -15654,7 +15652,7 @@
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -15682,7 +15680,7 @@
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -15710,7 +15708,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -15738,7 +15736,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
@@ -15766,10 +15764,10 @@
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -15796,10 +15794,10 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -15826,10 +15824,10 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -15856,10 +15854,10 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -15886,10 +15884,10 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H510" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -15916,10 +15914,10 @@
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -15946,10 +15944,10 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -15976,10 +15974,10 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -16006,10 +16004,10 @@
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -16036,10 +16034,10 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -16066,10 +16064,10 @@
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -16096,10 +16094,10 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -16126,10 +16124,10 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -16156,10 +16154,10 @@
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -16186,10 +16184,10 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -16216,10 +16214,10 @@
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -16246,10 +16244,10 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -16276,10 +16274,10 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -16306,7 +16304,7 @@
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
@@ -16334,7 +16332,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
@@ -16362,7 +16360,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -16390,7 +16388,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -16418,7 +16416,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
@@ -16446,7 +16444,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
@@ -16474,7 +16472,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
@@ -16502,7 +16500,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
@@ -16530,7 +16528,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
@@ -16558,7 +16556,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
@@ -16586,7 +16584,7 @@
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
@@ -16614,10 +16612,10 @@
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -16644,10 +16642,10 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -16674,10 +16672,10 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -16704,10 +16702,10 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -16734,10 +16732,10 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H539" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H539" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -16764,10 +16762,10 @@
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -16794,10 +16792,10 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -16824,10 +16822,10 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -16854,10 +16852,10 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -16884,10 +16882,10 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -16914,10 +16912,10 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -16944,10 +16942,10 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -16974,10 +16972,10 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -17004,10 +17002,10 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -17034,10 +17032,10 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -17064,10 +17062,10 @@
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -17094,10 +17092,10 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -17124,10 +17122,10 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -17154,7 +17152,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
@@ -17182,7 +17180,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
@@ -17210,7 +17208,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
@@ -17238,7 +17236,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
@@ -17266,7 +17264,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
@@ -17294,7 +17292,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
@@ -17322,7 +17320,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
@@ -17350,7 +17348,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
@@ -17378,7 +17376,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
@@ -17406,7 +17404,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
@@ -17434,7 +17432,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
@@ -17462,10 +17460,10 @@
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -17492,10 +17490,10 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -17522,10 +17520,10 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -17552,10 +17550,10 @@
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -17582,10 +17580,10 @@
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H568" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H568" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -17612,10 +17610,10 @@
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -17642,10 +17640,10 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -17672,10 +17670,10 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H571" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -17702,10 +17700,10 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -17732,10 +17730,10 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H573" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -17762,10 +17760,10 @@
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -17792,10 +17790,10 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -17822,10 +17820,10 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -17852,10 +17850,10 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -17882,10 +17880,10 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -17912,10 +17910,10 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -17942,10 +17940,10 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -17972,10 +17970,10 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -18002,7 +18000,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
@@ -18030,7 +18028,7 @@
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
@@ -18058,7 +18056,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
@@ -18086,7 +18084,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
@@ -18114,7 +18112,7 @@
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
@@ -18142,7 +18140,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
@@ -18170,7 +18168,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
@@ -18198,7 +18196,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
@@ -18226,7 +18224,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
@@ -18254,7 +18252,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
@@ -18282,7 +18280,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>

--- a/cal template.xlsx
+++ b/cal template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2490F905-18C3-4BE1-9684-29AC6544A8B9}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F352DC-A87E-4789-9E7C-B7BF735873CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="45">
   <si>
     <t>type</t>
   </si>
@@ -37,9 +37,6 @@
     <t>camera_name</t>
   </si>
   <si>
-    <t>sensor_dimensions</t>
-  </si>
-  <si>
     <t>lens_name</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>settings_notes</t>
-  </si>
-  <si>
-    <t>cal_image_dimensions</t>
   </si>
   <si>
     <t>pixel_map_type</t>
@@ -158,6 +152,9 @@
   </si>
   <si>
     <t>y_rec</t>
+  </si>
+  <si>
+    <t>cam_image_dimensions</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P592"/>
+  <dimension ref="A1:P591"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1038,7 @@
     <col min="1" max="2" width="9.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -1050,22 +1047,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -1080,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1123,12 +1120,12 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1183,12 +1180,12 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1203,12 +1200,12 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1226,7 +1223,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -1246,7 +1243,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -1266,7 +1263,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -1279,16 +1276,30 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-1</v>
+      </c>
       <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1311,16 +1322,12 @@
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1"/>
@@ -1345,12 +1352,12 @@
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1"/>
@@ -1378,10 +1385,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1408,10 +1415,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1438,10 +1445,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1468,10 +1475,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1495,13 +1502,13 @@
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1528,10 +1535,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1553,15 +1560,15 @@
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1588,10 +1595,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1618,10 +1625,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1645,13 +1652,13 @@
       <c r="D23" s="4">
         <v>-20</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1678,10 +1685,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1700,18 +1707,18 @@
         <v>0</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D25" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1738,10 +1745,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1768,10 +1775,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1795,13 +1802,13 @@
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1828,10 +1835,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1850,19 +1857,17 @@
         <v>0</v>
       </c>
       <c r="C30" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1883,12 +1888,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1911,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1936,15 +1941,15 @@
         <v>0</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D33" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1967,12 +1972,12 @@
         <v>-5</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1995,12 +2000,12 @@
         <v>-5</v>
       </c>
       <c r="D35" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2023,12 +2028,12 @@
         <v>-5</v>
       </c>
       <c r="D36" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2048,15 +2053,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2079,12 +2084,12 @@
         <v>-10</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2107,12 +2112,12 @@
         <v>-10</v>
       </c>
       <c r="D39" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2135,12 +2140,12 @@
         <v>-10</v>
       </c>
       <c r="D40" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2157,20 +2162,22 @@
         <v>0</v>
       </c>
       <c r="B41" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C41" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2193,12 +2200,12 @@
       <c r="D42" s="4">
         <v>0</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I42" s="1"/>
@@ -2226,10 +2233,10 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2256,10 +2263,10 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2286,10 +2293,10 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2316,10 +2323,10 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2343,13 +2350,13 @@
       <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2376,10 +2383,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2401,15 +2408,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2436,10 +2443,10 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2466,10 +2473,10 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2493,13 +2500,13 @@
       <c r="D52" s="4">
         <v>-20</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2526,10 +2533,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2548,18 +2555,18 @@
         <v>-20</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D54" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2586,10 +2593,10 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2616,10 +2623,10 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2643,13 +2650,13 @@
       <c r="D57" s="4">
         <v>0</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2676,10 +2683,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2698,19 +2705,17 @@
         <v>-20</v>
       </c>
       <c r="C59" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2731,12 +2736,12 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2759,12 +2764,12 @@
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2784,15 +2789,15 @@
         <v>-20</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D62" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2815,12 +2820,12 @@
         <v>-5</v>
       </c>
       <c r="D63" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2843,12 +2848,12 @@
         <v>-5</v>
       </c>
       <c r="D64" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2871,12 +2876,12 @@
         <v>-5</v>
       </c>
       <c r="D65" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2896,15 +2901,15 @@
         <v>-20</v>
       </c>
       <c r="C66" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D66" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2927,12 +2932,12 @@
         <v>-10</v>
       </c>
       <c r="D67" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2955,12 +2960,12 @@
         <v>-10</v>
       </c>
       <c r="D68" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2983,12 +2988,12 @@
         <v>-10</v>
       </c>
       <c r="D69" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3005,20 +3010,22 @@
         <v>0</v>
       </c>
       <c r="B70" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="C70" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D70" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3041,12 +3048,12 @@
       <c r="D71" s="4">
         <v>0</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="1"/>
@@ -3074,10 +3081,10 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3104,10 +3111,10 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3134,10 +3141,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3164,10 +3171,10 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3191,13 +3198,13 @@
       <c r="D76" s="4">
         <v>0</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3224,10 +3231,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3249,15 +3256,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3284,10 +3291,10 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3314,10 +3321,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3341,13 +3348,13 @@
       <c r="D81" s="4">
         <v>-20</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3374,10 +3381,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3396,18 +3403,18 @@
         <v>-40</v>
       </c>
       <c r="C83" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D83" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3434,10 +3441,10 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3464,10 +3471,10 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3491,13 +3498,13 @@
       <c r="D86" s="4">
         <v>0</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3524,10 +3531,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3546,19 +3553,17 @@
         <v>-40</v>
       </c>
       <c r="C88" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3579,12 +3584,12 @@
         <v>0</v>
       </c>
       <c r="D89" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3607,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="D90" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3632,15 +3637,15 @@
         <v>-40</v>
       </c>
       <c r="C91" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D91" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3663,12 +3668,12 @@
         <v>-5</v>
       </c>
       <c r="D92" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3691,12 +3696,12 @@
         <v>-5</v>
       </c>
       <c r="D93" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3719,12 +3724,12 @@
         <v>-5</v>
       </c>
       <c r="D94" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3744,15 +3749,15 @@
         <v>-40</v>
       </c>
       <c r="C95" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D95" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3775,12 +3780,12 @@
         <v>-10</v>
       </c>
       <c r="D96" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3803,12 +3808,12 @@
         <v>-10</v>
       </c>
       <c r="D97" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3831,12 +3836,12 @@
         <v>-10</v>
       </c>
       <c r="D98" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3853,20 +3858,22 @@
         <v>0</v>
       </c>
       <c r="B99" s="4">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="C99" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D99" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -3889,12 +3896,12 @@
       <c r="D100" s="4">
         <v>0</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1"/>
@@ -3922,10 +3929,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3952,10 +3959,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3982,10 +3989,10 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4012,10 +4019,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4039,13 +4046,13 @@
       <c r="D105" s="4">
         <v>0</v>
       </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4072,10 +4079,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4097,15 +4104,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4132,10 +4139,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4162,10 +4169,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4189,13 +4196,13 @@
       <c r="D110" s="4">
         <v>-20</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4222,10 +4229,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4244,18 +4251,18 @@
         <v>-60</v>
       </c>
       <c r="C112" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D112" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4282,10 +4289,10 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4312,10 +4319,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4339,13 +4346,13 @@
       <c r="D115" s="4">
         <v>0</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
       <c r="G115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4372,10 +4379,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4394,19 +4401,17 @@
         <v>-60</v>
       </c>
       <c r="C117" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D117" s="4">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -4427,12 +4432,12 @@
         <v>0</v>
       </c>
       <c r="D118" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4455,12 +4460,12 @@
         <v>0</v>
       </c>
       <c r="D119" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4480,15 +4485,15 @@
         <v>-60</v>
       </c>
       <c r="C120" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D120" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4511,12 +4516,12 @@
         <v>-5</v>
       </c>
       <c r="D121" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4539,12 +4544,12 @@
         <v>-5</v>
       </c>
       <c r="D122" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4567,12 +4572,12 @@
         <v>-5</v>
       </c>
       <c r="D123" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4592,15 +4597,15 @@
         <v>-60</v>
       </c>
       <c r="C124" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D124" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4623,12 +4628,12 @@
         <v>-10</v>
       </c>
       <c r="D125" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4651,12 +4656,12 @@
         <v>-10</v>
       </c>
       <c r="D126" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4679,12 +4684,12 @@
         <v>-10</v>
       </c>
       <c r="D127" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4701,20 +4706,22 @@
         <v>0</v>
       </c>
       <c r="B128" s="4">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="C128" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D128" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4737,12 +4744,12 @@
       <c r="D129" s="4">
         <v>0</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I129" s="1"/>
@@ -4770,10 +4777,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -4800,10 +4807,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -4830,10 +4837,10 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -4860,10 +4867,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -4887,13 +4894,13 @@
       <c r="D134" s="4">
         <v>0</v>
       </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -4920,10 +4927,10 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -4945,15 +4952,15 @@
         <v>0</v>
       </c>
       <c r="D136" s="4">
-        <v>0</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
       <c r="G136" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -4980,10 +4987,10 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -5010,10 +5017,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -5037,13 +5044,13 @@
       <c r="D139" s="4">
         <v>-20</v>
       </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -5070,10 +5077,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5092,18 +5099,18 @@
         <v>-80</v>
       </c>
       <c r="C141" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D141" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
       <c r="G141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5130,10 +5137,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5160,10 +5167,10 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5187,13 +5194,13 @@
       <c r="D144" s="4">
         <v>0</v>
       </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
       <c r="G144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5220,10 +5227,10 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5242,19 +5249,17 @@
         <v>-80</v>
       </c>
       <c r="C146" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D146" s="4">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
       <c r="G146" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -5275,12 +5280,12 @@
         <v>0</v>
       </c>
       <c r="D147" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5303,12 +5308,12 @@
         <v>0</v>
       </c>
       <c r="D148" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5328,15 +5333,15 @@
         <v>-80</v>
       </c>
       <c r="C149" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D149" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5359,12 +5364,12 @@
         <v>-5</v>
       </c>
       <c r="D150" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5387,12 +5392,12 @@
         <v>-5</v>
       </c>
       <c r="D151" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5415,12 +5420,12 @@
         <v>-5</v>
       </c>
       <c r="D152" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5440,15 +5445,15 @@
         <v>-80</v>
       </c>
       <c r="C153" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D153" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5471,12 +5476,12 @@
         <v>-10</v>
       </c>
       <c r="D154" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5499,12 +5504,12 @@
         <v>-10</v>
       </c>
       <c r="D155" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5527,12 +5532,12 @@
         <v>-10</v>
       </c>
       <c r="D156" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5546,23 +5551,25 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="B157" s="4">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="C157" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D157" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H157" s="1"/>
+      <c r="H157" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -5585,12 +5592,12 @@
       <c r="D158" s="4">
         <v>0</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3" t="s">
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I158" s="1"/>
@@ -5618,10 +5625,10 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5648,10 +5655,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5678,10 +5685,10 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5708,10 +5715,10 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -5735,13 +5742,13 @@
       <c r="D163" s="4">
         <v>0</v>
       </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
       <c r="G163" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -5768,10 +5775,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -5793,15 +5800,15 @@
         <v>0</v>
       </c>
       <c r="D165" s="4">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
       <c r="G165" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5828,10 +5835,10 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -5858,10 +5865,10 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5885,13 +5892,13 @@
       <c r="D168" s="4">
         <v>-20</v>
       </c>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5918,10 +5925,10 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -5940,18 +5947,18 @@
         <v>0</v>
       </c>
       <c r="C170" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D170" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
       <c r="G170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -5978,10 +5985,10 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -6008,10 +6015,10 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -6035,13 +6042,13 @@
       <c r="D173" s="4">
         <v>0</v>
       </c>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
       <c r="G173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6068,10 +6075,10 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -6090,19 +6097,17 @@
         <v>0</v>
       </c>
       <c r="C175" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D175" s="4">
-        <v>0</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
       <c r="G175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -6123,12 +6128,12 @@
         <v>0</v>
       </c>
       <c r="D176" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6151,12 +6156,12 @@
         <v>0</v>
       </c>
       <c r="D177" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6176,15 +6181,15 @@
         <v>0</v>
       </c>
       <c r="C178" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D178" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6207,12 +6212,12 @@
         <v>-5</v>
       </c>
       <c r="D179" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6235,12 +6240,12 @@
         <v>-5</v>
       </c>
       <c r="D180" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6263,12 +6268,12 @@
         <v>-5</v>
       </c>
       <c r="D181" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6288,15 +6293,15 @@
         <v>0</v>
       </c>
       <c r="C182" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D182" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6319,12 +6324,12 @@
         <v>-10</v>
       </c>
       <c r="D183" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6347,12 +6352,12 @@
         <v>-10</v>
       </c>
       <c r="D184" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6375,12 +6380,12 @@
         <v>-10</v>
       </c>
       <c r="D185" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6397,20 +6402,22 @@
         <v>-15</v>
       </c>
       <c r="B186" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C186" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D186" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H186" s="1"/>
+      <c r="H186" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -6433,12 +6440,12 @@
       <c r="D187" s="4">
         <v>0</v>
       </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H187" s="3" t="s">
+      <c r="H187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="1"/>
@@ -6466,10 +6473,10 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6496,10 +6503,10 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6526,10 +6533,10 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6556,10 +6563,10 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6583,13 +6590,13 @@
       <c r="D192" s="4">
         <v>0</v>
       </c>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
       <c r="G192" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6616,10 +6623,10 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -6641,15 +6648,15 @@
         <v>0</v>
       </c>
       <c r="D194" s="4">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
       <c r="G194" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -6676,10 +6683,10 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -6706,10 +6713,10 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -6733,13 +6740,13 @@
       <c r="D197" s="4">
         <v>-20</v>
       </c>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -6766,10 +6773,10 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -6788,18 +6795,18 @@
         <v>-20</v>
       </c>
       <c r="C199" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D199" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
       <c r="G199" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -6826,10 +6833,10 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -6856,10 +6863,10 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -6883,13 +6890,13 @@
       <c r="D202" s="4">
         <v>0</v>
       </c>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
       <c r="G202" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -6916,10 +6923,10 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -6938,19 +6945,17 @@
         <v>-20</v>
       </c>
       <c r="C204" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D204" s="4">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
       <c r="G204" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -6971,12 +6976,12 @@
         <v>0</v>
       </c>
       <c r="D205" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -6999,12 +7004,12 @@
         <v>0</v>
       </c>
       <c r="D206" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7024,15 +7029,15 @@
         <v>-20</v>
       </c>
       <c r="C207" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D207" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7055,12 +7060,12 @@
         <v>-5</v>
       </c>
       <c r="D208" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7083,12 +7088,12 @@
         <v>-5</v>
       </c>
       <c r="D209" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7111,12 +7116,12 @@
         <v>-5</v>
       </c>
       <c r="D210" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7136,15 +7141,15 @@
         <v>-20</v>
       </c>
       <c r="C211" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D211" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7167,12 +7172,12 @@
         <v>-10</v>
       </c>
       <c r="D212" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7195,12 +7200,12 @@
         <v>-10</v>
       </c>
       <c r="D213" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7223,12 +7228,12 @@
         <v>-10</v>
       </c>
       <c r="D214" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7245,20 +7250,22 @@
         <v>-15</v>
       </c>
       <c r="B215" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="C215" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D215" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-      <c r="G215" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H215" s="1"/>
+      <c r="H215" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -7281,12 +7288,12 @@
       <c r="D216" s="4">
         <v>0</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3" t="s">
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="H216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I216" s="1"/>
@@ -7314,10 +7321,10 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H217" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -7344,10 +7351,10 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7374,10 +7381,10 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7404,10 +7411,10 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7431,13 +7438,13 @@
       <c r="D221" s="4">
         <v>0</v>
       </c>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
       <c r="G221" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7464,10 +7471,10 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7489,15 +7496,15 @@
         <v>0</v>
       </c>
       <c r="D223" s="4">
-        <v>0</v>
-      </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
       <c r="G223" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7524,10 +7531,10 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -7554,10 +7561,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -7581,13 +7588,13 @@
       <c r="D226" s="4">
         <v>-20</v>
       </c>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
       <c r="G226" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -7614,10 +7621,10 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -7636,18 +7643,18 @@
         <v>-40</v>
       </c>
       <c r="C228" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D228" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
       <c r="G228" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -7674,10 +7681,10 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -7704,10 +7711,10 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -7731,13 +7738,13 @@
       <c r="D231" s="4">
         <v>0</v>
       </c>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -7764,10 +7771,10 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -7786,19 +7793,17 @@
         <v>-40</v>
       </c>
       <c r="C233" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D233" s="4">
-        <v>0</v>
-      </c>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
       <c r="G233" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -7819,12 +7824,12 @@
         <v>0</v>
       </c>
       <c r="D234" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7847,12 +7852,12 @@
         <v>0</v>
       </c>
       <c r="D235" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7872,15 +7877,15 @@
         <v>-40</v>
       </c>
       <c r="C236" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D236" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7903,12 +7908,12 @@
         <v>-5</v>
       </c>
       <c r="D237" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7931,12 +7936,12 @@
         <v>-5</v>
       </c>
       <c r="D238" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7959,12 +7964,12 @@
         <v>-5</v>
       </c>
       <c r="D239" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7984,15 +7989,15 @@
         <v>-40</v>
       </c>
       <c r="C240" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D240" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8015,12 +8020,12 @@
         <v>-10</v>
       </c>
       <c r="D241" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8043,12 +8048,12 @@
         <v>-10</v>
       </c>
       <c r="D242" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8071,12 +8076,12 @@
         <v>-10</v>
       </c>
       <c r="D243" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8093,20 +8098,22 @@
         <v>-15</v>
       </c>
       <c r="B244" s="4">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="C244" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D244" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H244" s="1"/>
+      <c r="H244" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -8129,12 +8136,12 @@
       <c r="D245" s="4">
         <v>0</v>
       </c>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3" t="s">
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="H245" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I245" s="1"/>
@@ -8162,10 +8169,10 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -8192,10 +8199,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -8222,10 +8229,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8252,10 +8259,10 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -8279,13 +8286,13 @@
       <c r="D250" s="4">
         <v>0</v>
       </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
       <c r="G250" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -8312,10 +8319,10 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -8337,15 +8344,15 @@
         <v>0</v>
       </c>
       <c r="D252" s="4">
-        <v>0</v>
-      </c>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
       <c r="G252" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8372,10 +8379,10 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -8402,10 +8409,10 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8429,13 +8436,13 @@
       <c r="D255" s="4">
         <v>-20</v>
       </c>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
       <c r="G255" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8462,10 +8469,10 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8484,18 +8491,18 @@
         <v>-60</v>
       </c>
       <c r="C257" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D257" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
       <c r="G257" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -8522,10 +8529,10 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -8552,10 +8559,10 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -8579,13 +8586,13 @@
       <c r="D260" s="4">
         <v>0</v>
       </c>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
       <c r="G260" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -8612,10 +8619,10 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -8634,19 +8641,17 @@
         <v>-60</v>
       </c>
       <c r="C262" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D262" s="4">
-        <v>0</v>
-      </c>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
       <c r="G262" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -8667,12 +8672,12 @@
         <v>0</v>
       </c>
       <c r="D263" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -8695,12 +8700,12 @@
         <v>0</v>
       </c>
       <c r="D264" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -8720,15 +8725,15 @@
         <v>-60</v>
       </c>
       <c r="C265" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D265" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -8751,12 +8756,12 @@
         <v>-5</v>
       </c>
       <c r="D266" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -8779,12 +8784,12 @@
         <v>-5</v>
       </c>
       <c r="D267" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -8807,12 +8812,12 @@
         <v>-5</v>
       </c>
       <c r="D268" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -8832,15 +8837,15 @@
         <v>-60</v>
       </c>
       <c r="C269" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D269" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -8863,12 +8868,12 @@
         <v>-10</v>
       </c>
       <c r="D270" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -8891,12 +8896,12 @@
         <v>-10</v>
       </c>
       <c r="D271" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -8919,12 +8924,12 @@
         <v>-10</v>
       </c>
       <c r="D272" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -8941,20 +8946,22 @@
         <v>-15</v>
       </c>
       <c r="B273" s="4">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="C273" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D273" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H273" s="1"/>
+      <c r="H273" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -8977,12 +8984,12 @@
       <c r="D274" s="4">
         <v>0</v>
       </c>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3" t="s">
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H274" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I274" s="1"/>
@@ -9010,10 +9017,10 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H275" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -9040,10 +9047,10 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -9070,10 +9077,10 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -9100,10 +9107,10 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -9127,13 +9134,13 @@
       <c r="D279" s="4">
         <v>0</v>
       </c>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
       <c r="G279" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9160,10 +9167,10 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -9185,15 +9192,15 @@
         <v>0</v>
       </c>
       <c r="D281" s="4">
-        <v>0</v>
-      </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
       <c r="G281" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9220,10 +9227,10 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -9250,10 +9257,10 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9277,13 +9284,13 @@
       <c r="D284" s="4">
         <v>-20</v>
       </c>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
       <c r="G284" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -9310,10 +9317,10 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -9332,18 +9339,18 @@
         <v>-80</v>
       </c>
       <c r="C286" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D286" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9370,10 +9377,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9400,10 +9407,10 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -9427,13 +9434,13 @@
       <c r="D289" s="4">
         <v>0</v>
       </c>
-      <c r="E289" s="2"/>
-      <c r="F289" s="2"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
       <c r="G289" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9460,10 +9467,10 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9482,19 +9489,17 @@
         <v>-80</v>
       </c>
       <c r="C291" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D291" s="4">
-        <v>0</v>
-      </c>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
       <c r="G291" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -9515,12 +9520,12 @@
         <v>0</v>
       </c>
       <c r="D292" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -9543,12 +9548,12 @@
         <v>0</v>
       </c>
       <c r="D293" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9568,15 +9573,15 @@
         <v>-80</v>
       </c>
       <c r="C294" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D294" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -9599,12 +9604,12 @@
         <v>-5</v>
       </c>
       <c r="D295" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -9627,12 +9632,12 @@
         <v>-5</v>
       </c>
       <c r="D296" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -9655,12 +9660,12 @@
         <v>-5</v>
       </c>
       <c r="D297" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -9680,15 +9685,15 @@
         <v>-80</v>
       </c>
       <c r="C298" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D298" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -9711,12 +9716,12 @@
         <v>-10</v>
       </c>
       <c r="D299" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -9739,12 +9744,12 @@
         <v>-10</v>
       </c>
       <c r="D300" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -9767,12 +9772,12 @@
         <v>-10</v>
       </c>
       <c r="D301" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -9786,23 +9791,25 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="B302" s="4">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="C302" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D302" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
-      <c r="G302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H302" s="1"/>
+      <c r="H302" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -9825,12 +9832,12 @@
       <c r="D303" s="4">
         <v>0</v>
       </c>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3" t="s">
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="H303" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="1"/>
@@ -9858,10 +9865,10 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H304" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -9888,10 +9895,10 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -9918,10 +9925,10 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -9948,10 +9955,10 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -9975,13 +9982,13 @@
       <c r="D308" s="4">
         <v>0</v>
       </c>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
       <c r="G308" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -10008,10 +10015,10 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -10033,15 +10040,15 @@
         <v>0</v>
       </c>
       <c r="D310" s="4">
-        <v>0</v>
-      </c>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
       <c r="G310" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -10068,10 +10075,10 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -10098,10 +10105,10 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -10125,13 +10132,13 @@
       <c r="D313" s="4">
         <v>-20</v>
       </c>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
       <c r="G313" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -10158,10 +10165,10 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -10180,18 +10187,18 @@
         <v>0</v>
       </c>
       <c r="C315" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D315" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
       <c r="G315" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -10218,10 +10225,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -10248,10 +10255,10 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -10275,13 +10282,13 @@
       <c r="D318" s="4">
         <v>0</v>
       </c>
-      <c r="E318" s="2"/>
-      <c r="F318" s="2"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
       <c r="G318" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -10308,10 +10315,10 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -10330,19 +10337,17 @@
         <v>0</v>
       </c>
       <c r="C320" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D320" s="4">
-        <v>0</v>
-      </c>
-      <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
       <c r="G320" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -10363,12 +10368,12 @@
         <v>0</v>
       </c>
       <c r="D321" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10391,12 +10396,12 @@
         <v>0</v>
       </c>
       <c r="D322" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10416,15 +10421,15 @@
         <v>0</v>
       </c>
       <c r="C323" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D323" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10447,12 +10452,12 @@
         <v>-5</v>
       </c>
       <c r="D324" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -10475,12 +10480,12 @@
         <v>-5</v>
       </c>
       <c r="D325" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -10503,12 +10508,12 @@
         <v>-5</v>
       </c>
       <c r="D326" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -10528,15 +10533,15 @@
         <v>0</v>
       </c>
       <c r="C327" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D327" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10559,12 +10564,12 @@
         <v>-10</v>
       </c>
       <c r="D328" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -10587,12 +10592,12 @@
         <v>-10</v>
       </c>
       <c r="D329" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -10615,12 +10620,12 @@
         <v>-10</v>
       </c>
       <c r="D330" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -10637,20 +10642,22 @@
         <v>-30</v>
       </c>
       <c r="B331" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C331" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D331" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E331" s="2"/>
-      <c r="F331" s="2"/>
-      <c r="G331" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E331" s="3"/>
+      <c r="F331" s="3"/>
+      <c r="G331" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H331" s="1"/>
+      <c r="H331" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -10673,12 +10680,12 @@
       <c r="D332" s="4">
         <v>0</v>
       </c>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3" t="s">
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="H332" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I332" s="1"/>
@@ -10706,10 +10713,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -10736,10 +10743,10 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -10766,10 +10773,10 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -10796,10 +10803,10 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -10823,13 +10830,13 @@
       <c r="D337" s="4">
         <v>0</v>
       </c>
-      <c r="E337" s="2"/>
-      <c r="F337" s="2"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
       <c r="G337" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -10856,10 +10863,10 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -10881,15 +10888,15 @@
         <v>0</v>
       </c>
       <c r="D339" s="4">
-        <v>0</v>
-      </c>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
       <c r="G339" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -10916,10 +10923,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -10946,10 +10953,10 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -10973,13 +10980,13 @@
       <c r="D342" s="4">
         <v>-20</v>
       </c>
-      <c r="E342" s="2"/>
-      <c r="F342" s="2"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
       <c r="G342" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -11006,10 +11013,10 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -11028,18 +11035,18 @@
         <v>-20</v>
       </c>
       <c r="C344" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D344" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
       <c r="G344" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -11066,10 +11073,10 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -11096,10 +11103,10 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -11123,13 +11130,13 @@
       <c r="D347" s="4">
         <v>0</v>
       </c>
-      <c r="E347" s="2"/>
-      <c r="F347" s="2"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
       <c r="G347" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -11156,10 +11163,10 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -11178,19 +11185,17 @@
         <v>-20</v>
       </c>
       <c r="C349" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D349" s="4">
-        <v>0</v>
-      </c>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
       <c r="G349" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
@@ -11211,12 +11216,12 @@
         <v>0</v>
       </c>
       <c r="D350" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11239,12 +11244,12 @@
         <v>0</v>
       </c>
       <c r="D351" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11264,15 +11269,15 @@
         <v>-20</v>
       </c>
       <c r="C352" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D352" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11295,12 +11300,12 @@
         <v>-5</v>
       </c>
       <c r="D353" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11323,12 +11328,12 @@
         <v>-5</v>
       </c>
       <c r="D354" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11351,12 +11356,12 @@
         <v>-5</v>
       </c>
       <c r="D355" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11376,15 +11381,15 @@
         <v>-20</v>
       </c>
       <c r="C356" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D356" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11407,12 +11412,12 @@
         <v>-10</v>
       </c>
       <c r="D357" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11435,12 +11440,12 @@
         <v>-10</v>
       </c>
       <c r="D358" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11463,12 +11468,12 @@
         <v>-10</v>
       </c>
       <c r="D359" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -11485,20 +11490,22 @@
         <v>-30</v>
       </c>
       <c r="B360" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="C360" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D360" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2"/>
-      <c r="G360" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3"/>
+      <c r="F360" s="3"/>
+      <c r="G360" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H360" s="1"/>
+      <c r="H360" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
@@ -11521,12 +11528,12 @@
       <c r="D361" s="4">
         <v>0</v>
       </c>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3" t="s">
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H361" s="3" t="s">
+      <c r="H361" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I361" s="1"/>
@@ -11554,10 +11561,10 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H362" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -11584,10 +11591,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -11614,10 +11621,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -11644,10 +11651,10 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -11671,13 +11678,13 @@
       <c r="D366" s="4">
         <v>0</v>
       </c>
-      <c r="E366" s="2"/>
-      <c r="F366" s="2"/>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
       <c r="G366" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -11704,10 +11711,10 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -11729,15 +11736,15 @@
         <v>0</v>
       </c>
       <c r="D368" s="4">
-        <v>0</v>
-      </c>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
       <c r="G368" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -11764,10 +11771,10 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -11794,10 +11801,10 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -11821,13 +11828,13 @@
       <c r="D371" s="4">
         <v>-20</v>
       </c>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
+      <c r="E371" s="1"/>
+      <c r="F371" s="1"/>
       <c r="G371" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -11854,10 +11861,10 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -11876,18 +11883,18 @@
         <v>-40</v>
       </c>
       <c r="C373" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D373" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
       <c r="G373" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -11914,10 +11921,10 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -11944,10 +11951,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -11971,13 +11978,13 @@
       <c r="D376" s="4">
         <v>0</v>
       </c>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
       <c r="G376" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12004,10 +12011,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -12026,19 +12033,17 @@
         <v>-40</v>
       </c>
       <c r="C378" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D378" s="4">
-        <v>0</v>
-      </c>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
       <c r="G378" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H378" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
@@ -12059,12 +12064,12 @@
         <v>0</v>
       </c>
       <c r="D379" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12087,12 +12092,12 @@
         <v>0</v>
       </c>
       <c r="D380" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12112,15 +12117,15 @@
         <v>-40</v>
       </c>
       <c r="C381" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D381" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12143,12 +12148,12 @@
         <v>-5</v>
       </c>
       <c r="D382" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12171,12 +12176,12 @@
         <v>-5</v>
       </c>
       <c r="D383" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12199,12 +12204,12 @@
         <v>-5</v>
       </c>
       <c r="D384" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12224,15 +12229,15 @@
         <v>-40</v>
       </c>
       <c r="C385" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D385" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12255,12 +12260,12 @@
         <v>-10</v>
       </c>
       <c r="D386" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12283,12 +12288,12 @@
         <v>-10</v>
       </c>
       <c r="D387" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12311,12 +12316,12 @@
         <v>-10</v>
       </c>
       <c r="D388" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12333,20 +12338,22 @@
         <v>-30</v>
       </c>
       <c r="B389" s="4">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="C389" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D389" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H389" s="1"/>
+      <c r="H389" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
@@ -12369,12 +12376,12 @@
       <c r="D390" s="4">
         <v>0</v>
       </c>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3" t="s">
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H390" s="3" t="s">
+      <c r="H390" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I390" s="1"/>
@@ -12402,10 +12409,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H391" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H391" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -12432,10 +12439,10 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -12462,10 +12469,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -12492,10 +12499,10 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -12519,13 +12526,13 @@
       <c r="D395" s="4">
         <v>0</v>
       </c>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
+      <c r="E395" s="1"/>
+      <c r="F395" s="1"/>
       <c r="G395" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -12552,10 +12559,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -12577,15 +12584,15 @@
         <v>0</v>
       </c>
       <c r="D397" s="4">
-        <v>0</v>
-      </c>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
       <c r="G397" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -12612,10 +12619,10 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -12642,10 +12649,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -12669,13 +12676,13 @@
       <c r="D400" s="4">
         <v>-20</v>
       </c>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
+      <c r="E400" s="1"/>
+      <c r="F400" s="1"/>
       <c r="G400" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -12702,10 +12709,10 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -12724,18 +12731,18 @@
         <v>-60</v>
       </c>
       <c r="C402" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D402" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
       <c r="G402" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -12762,10 +12769,10 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -12792,10 +12799,10 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -12819,13 +12826,13 @@
       <c r="D405" s="4">
         <v>0</v>
       </c>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
       <c r="G405" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -12852,10 +12859,10 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -12874,19 +12881,17 @@
         <v>-60</v>
       </c>
       <c r="C407" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D407" s="4">
-        <v>0</v>
-      </c>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
       <c r="G407" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H407" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
@@ -12907,12 +12912,12 @@
         <v>0</v>
       </c>
       <c r="D408" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -12935,12 +12940,12 @@
         <v>0</v>
       </c>
       <c r="D409" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -12960,15 +12965,15 @@
         <v>-60</v>
       </c>
       <c r="C410" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D410" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -12991,12 +12996,12 @@
         <v>-5</v>
       </c>
       <c r="D411" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -13019,12 +13024,12 @@
         <v>-5</v>
       </c>
       <c r="D412" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -13047,12 +13052,12 @@
         <v>-5</v>
       </c>
       <c r="D413" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13072,15 +13077,15 @@
         <v>-60</v>
       </c>
       <c r="C414" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D414" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13103,12 +13108,12 @@
         <v>-10</v>
       </c>
       <c r="D415" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13131,12 +13136,12 @@
         <v>-10</v>
       </c>
       <c r="D416" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13159,12 +13164,12 @@
         <v>-10</v>
       </c>
       <c r="D417" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13181,20 +13186,22 @@
         <v>-30</v>
       </c>
       <c r="B418" s="4">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="C418" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D418" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E418" s="3"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H418" s="1"/>
+      <c r="H418" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
@@ -13217,12 +13224,12 @@
       <c r="D419" s="4">
         <v>0</v>
       </c>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3" t="s">
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H419" s="3" t="s">
+      <c r="H419" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I419" s="1"/>
@@ -13250,10 +13257,10 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H420" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H420" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -13280,10 +13287,10 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -13310,10 +13317,10 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -13340,10 +13347,10 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -13367,13 +13374,13 @@
       <c r="D424" s="4">
         <v>0</v>
       </c>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
+      <c r="E424" s="1"/>
+      <c r="F424" s="1"/>
       <c r="G424" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -13400,10 +13407,10 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -13425,15 +13432,15 @@
         <v>0</v>
       </c>
       <c r="D426" s="4">
-        <v>0</v>
-      </c>
-      <c r="E426" s="1"/>
-      <c r="F426" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
       <c r="G426" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -13460,10 +13467,10 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -13490,10 +13497,10 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -13517,13 +13524,13 @@
       <c r="D429" s="4">
         <v>-20</v>
       </c>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
+      <c r="E429" s="1"/>
+      <c r="F429" s="1"/>
       <c r="G429" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -13550,10 +13557,10 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -13572,18 +13579,18 @@
         <v>-80</v>
       </c>
       <c r="C431" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D431" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
       <c r="G431" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -13610,10 +13617,10 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -13640,10 +13647,10 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -13667,13 +13674,13 @@
       <c r="D434" s="4">
         <v>0</v>
       </c>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
+      <c r="E434" s="1"/>
+      <c r="F434" s="1"/>
       <c r="G434" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -13700,10 +13707,10 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -13722,19 +13729,17 @@
         <v>-80</v>
       </c>
       <c r="C436" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D436" s="4">
-        <v>0</v>
-      </c>
-      <c r="E436" s="1"/>
-      <c r="F436" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
       <c r="G436" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H436" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
@@ -13755,12 +13760,12 @@
         <v>0</v>
       </c>
       <c r="D437" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
@@ -13783,12 +13788,12 @@
         <v>0</v>
       </c>
       <c r="D438" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
@@ -13808,15 +13813,15 @@
         <v>-80</v>
       </c>
       <c r="C439" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D439" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
@@ -13839,12 +13844,12 @@
         <v>-5</v>
       </c>
       <c r="D440" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
@@ -13867,12 +13872,12 @@
         <v>-5</v>
       </c>
       <c r="D441" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
@@ -13895,12 +13900,12 @@
         <v>-5</v>
       </c>
       <c r="D442" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -13920,15 +13925,15 @@
         <v>-80</v>
       </c>
       <c r="C443" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D443" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -13951,12 +13956,12 @@
         <v>-10</v>
       </c>
       <c r="D444" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -13979,12 +13984,12 @@
         <v>-10</v>
       </c>
       <c r="D445" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -14007,12 +14012,12 @@
         <v>-10</v>
       </c>
       <c r="D446" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
@@ -14026,23 +14031,25 @@
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="B447" s="4">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="C447" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D447" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+      <c r="G447" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H447" s="1"/>
+      <c r="H447" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
@@ -14065,12 +14072,12 @@
       <c r="D448" s="4">
         <v>0</v>
       </c>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3" t="s">
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H448" s="3" t="s">
+      <c r="H448" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I448" s="1"/>
@@ -14098,10 +14105,10 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H449" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H449" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -14128,10 +14135,10 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -14158,10 +14165,10 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -14188,10 +14195,10 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -14215,13 +14222,13 @@
       <c r="D453" s="4">
         <v>0</v>
       </c>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
+      <c r="E453" s="1"/>
+      <c r="F453" s="1"/>
       <c r="G453" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -14248,10 +14255,10 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -14273,15 +14280,15 @@
         <v>0</v>
       </c>
       <c r="D455" s="4">
-        <v>0</v>
-      </c>
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
       <c r="G455" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -14308,10 +14315,10 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -14338,10 +14345,10 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -14365,13 +14372,13 @@
       <c r="D458" s="4">
         <v>-20</v>
       </c>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
       <c r="G458" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -14398,10 +14405,10 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -14420,18 +14427,18 @@
         <v>0</v>
       </c>
       <c r="C460" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D460" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E460" s="1"/>
-      <c r="F460" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
       <c r="G460" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -14458,10 +14465,10 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -14488,10 +14495,10 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -14515,13 +14522,13 @@
       <c r="D463" s="4">
         <v>0</v>
       </c>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
       <c r="G463" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -14548,10 +14555,10 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -14570,19 +14577,17 @@
         <v>0</v>
       </c>
       <c r="C465" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D465" s="4">
-        <v>0</v>
-      </c>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
       <c r="G465" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H465" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
@@ -14603,12 +14608,12 @@
         <v>0</v>
       </c>
       <c r="D466" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
@@ -14631,12 +14636,12 @@
         <v>0</v>
       </c>
       <c r="D467" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
@@ -14656,15 +14661,15 @@
         <v>0</v>
       </c>
       <c r="C468" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D468" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -14687,12 +14692,12 @@
         <v>-5</v>
       </c>
       <c r="D469" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -14715,12 +14720,12 @@
         <v>-5</v>
       </c>
       <c r="D470" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
@@ -14743,12 +14748,12 @@
         <v>-5</v>
       </c>
       <c r="D471" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
@@ -14768,15 +14773,15 @@
         <v>0</v>
       </c>
       <c r="C472" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D472" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -14799,12 +14804,12 @@
         <v>-10</v>
       </c>
       <c r="D473" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -14827,12 +14832,12 @@
         <v>-10</v>
       </c>
       <c r="D474" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -14855,12 +14860,12 @@
         <v>-10</v>
       </c>
       <c r="D475" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -14877,20 +14882,22 @@
         <v>-45</v>
       </c>
       <c r="B476" s="4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C476" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D476" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E476" s="2"/>
-      <c r="F476" s="2"/>
-      <c r="G476" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E476" s="3"/>
+      <c r="F476" s="3"/>
+      <c r="G476" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H476" s="1"/>
+      <c r="H476" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
@@ -14913,12 +14920,12 @@
       <c r="D477" s="4">
         <v>0</v>
       </c>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3" t="s">
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H477" s="3" t="s">
+      <c r="H477" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I477" s="1"/>
@@ -14946,10 +14953,10 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H478" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H478" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -14976,10 +14983,10 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -15006,10 +15013,10 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -15036,10 +15043,10 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -15063,13 +15070,13 @@
       <c r="D482" s="4">
         <v>0</v>
       </c>
-      <c r="E482" s="2"/>
-      <c r="F482" s="2"/>
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
       <c r="G482" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -15096,10 +15103,10 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -15121,15 +15128,15 @@
         <v>0</v>
       </c>
       <c r="D484" s="4">
-        <v>0</v>
-      </c>
-      <c r="E484" s="1"/>
-      <c r="F484" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
       <c r="G484" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -15156,10 +15163,10 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -15186,10 +15193,10 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -15213,13 +15220,13 @@
       <c r="D487" s="4">
         <v>-20</v>
       </c>
-      <c r="E487" s="2"/>
-      <c r="F487" s="2"/>
+      <c r="E487" s="1"/>
+      <c r="F487" s="1"/>
       <c r="G487" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -15246,10 +15253,10 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -15268,18 +15275,18 @@
         <v>-20</v>
       </c>
       <c r="C489" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D489" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E489" s="1"/>
-      <c r="F489" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
       <c r="G489" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -15306,10 +15313,10 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -15336,10 +15343,10 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -15363,13 +15370,13 @@
       <c r="D492" s="4">
         <v>0</v>
       </c>
-      <c r="E492" s="2"/>
-      <c r="F492" s="2"/>
+      <c r="E492" s="1"/>
+      <c r="F492" s="1"/>
       <c r="G492" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -15396,10 +15403,10 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -15418,19 +15425,17 @@
         <v>-20</v>
       </c>
       <c r="C494" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D494" s="4">
-        <v>0</v>
-      </c>
-      <c r="E494" s="1"/>
-      <c r="F494" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
       <c r="G494" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H494" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
@@ -15451,12 +15456,12 @@
         <v>0</v>
       </c>
       <c r="D495" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -15479,12 +15484,12 @@
         <v>0</v>
       </c>
       <c r="D496" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -15504,15 +15509,15 @@
         <v>-20</v>
       </c>
       <c r="C497" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D497" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -15535,12 +15540,12 @@
         <v>-5</v>
       </c>
       <c r="D498" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -15563,12 +15568,12 @@
         <v>-5</v>
       </c>
       <c r="D499" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -15591,12 +15596,12 @@
         <v>-5</v>
       </c>
       <c r="D500" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -15616,15 +15621,15 @@
         <v>-20</v>
       </c>
       <c r="C501" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D501" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -15647,12 +15652,12 @@
         <v>-10</v>
       </c>
       <c r="D502" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -15675,12 +15680,12 @@
         <v>-10</v>
       </c>
       <c r="D503" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -15703,12 +15708,12 @@
         <v>-10</v>
       </c>
       <c r="D504" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -15725,20 +15730,22 @@
         <v>-45</v>
       </c>
       <c r="B505" s="4">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="C505" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D505" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E505" s="2"/>
-      <c r="F505" s="2"/>
-      <c r="G505" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E505" s="3"/>
+      <c r="F505" s="3"/>
+      <c r="G505" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H505" s="1"/>
+      <c r="H505" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
@@ -15761,12 +15768,12 @@
       <c r="D506" s="4">
         <v>0</v>
       </c>
-      <c r="E506" s="3"/>
-      <c r="F506" s="3"/>
-      <c r="G506" s="3" t="s">
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H506" s="3" t="s">
+      <c r="H506" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I506" s="1"/>
@@ -15794,10 +15801,10 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H507" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H507" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -15824,10 +15831,10 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -15854,10 +15861,10 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -15884,10 +15891,10 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -15911,13 +15918,13 @@
       <c r="D511" s="4">
         <v>0</v>
       </c>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
+      <c r="E511" s="1"/>
+      <c r="F511" s="1"/>
       <c r="G511" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -15944,10 +15951,10 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -15969,15 +15976,15 @@
         <v>0</v>
       </c>
       <c r="D513" s="4">
-        <v>0</v>
-      </c>
-      <c r="E513" s="1"/>
-      <c r="F513" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
       <c r="G513" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -16004,10 +16011,10 @@
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -16034,10 +16041,10 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -16061,13 +16068,13 @@
       <c r="D516" s="4">
         <v>-20</v>
       </c>
-      <c r="E516" s="2"/>
-      <c r="F516" s="2"/>
+      <c r="E516" s="1"/>
+      <c r="F516" s="1"/>
       <c r="G516" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -16094,10 +16101,10 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -16116,18 +16123,18 @@
         <v>-40</v>
       </c>
       <c r="C518" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D518" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E518" s="1"/>
-      <c r="F518" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E518" s="2"/>
+      <c r="F518" s="2"/>
       <c r="G518" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -16154,10 +16161,10 @@
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -16184,10 +16191,10 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -16211,13 +16218,13 @@
       <c r="D521" s="4">
         <v>0</v>
       </c>
-      <c r="E521" s="2"/>
-      <c r="F521" s="2"/>
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
       <c r="G521" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -16244,10 +16251,10 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -16266,19 +16273,17 @@
         <v>-40</v>
       </c>
       <c r="C523" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D523" s="4">
-        <v>0</v>
-      </c>
-      <c r="E523" s="1"/>
-      <c r="F523" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E523" s="2"/>
+      <c r="F523" s="2"/>
       <c r="G523" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H523" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
@@ -16299,12 +16304,12 @@
         <v>0</v>
       </c>
       <c r="D524" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
@@ -16327,12 +16332,12 @@
         <v>0</v>
       </c>
       <c r="D525" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
@@ -16352,15 +16357,15 @@
         <v>-40</v>
       </c>
       <c r="C526" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D526" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -16383,12 +16388,12 @@
         <v>-5</v>
       </c>
       <c r="D527" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -16411,12 +16416,12 @@
         <v>-5</v>
       </c>
       <c r="D528" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
@@ -16439,12 +16444,12 @@
         <v>-5</v>
       </c>
       <c r="D529" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
@@ -16464,15 +16469,15 @@
         <v>-40</v>
       </c>
       <c r="C530" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D530" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
@@ -16495,12 +16500,12 @@
         <v>-10</v>
       </c>
       <c r="D531" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
@@ -16523,12 +16528,12 @@
         <v>-10</v>
       </c>
       <c r="D532" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
@@ -16551,12 +16556,12 @@
         <v>-10</v>
       </c>
       <c r="D533" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
@@ -16573,20 +16578,22 @@
         <v>-45</v>
       </c>
       <c r="B534" s="4">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="C534" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D534" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E534" s="2"/>
-      <c r="F534" s="2"/>
-      <c r="G534" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E534" s="3"/>
+      <c r="F534" s="3"/>
+      <c r="G534" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H534" s="1"/>
+      <c r="H534" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
@@ -16609,12 +16616,12 @@
       <c r="D535" s="4">
         <v>0</v>
       </c>
-      <c r="E535" s="3"/>
-      <c r="F535" s="3"/>
-      <c r="G535" s="3" t="s">
+      <c r="E535" s="2"/>
+      <c r="F535" s="2"/>
+      <c r="G535" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H535" s="3" t="s">
+      <c r="H535" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I535" s="1"/>
@@ -16642,10 +16649,10 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H536" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H536" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -16672,10 +16679,10 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -16702,10 +16709,10 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -16732,10 +16739,10 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -16759,13 +16766,13 @@
       <c r="D540" s="4">
         <v>0</v>
       </c>
-      <c r="E540" s="2"/>
-      <c r="F540" s="2"/>
+      <c r="E540" s="1"/>
+      <c r="F540" s="1"/>
       <c r="G540" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -16792,10 +16799,10 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -16817,15 +16824,15 @@
         <v>0</v>
       </c>
       <c r="D542" s="4">
-        <v>0</v>
-      </c>
-      <c r="E542" s="1"/>
-      <c r="F542" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E542" s="2"/>
+      <c r="F542" s="2"/>
       <c r="G542" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -16852,10 +16859,10 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -16882,10 +16889,10 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -16909,13 +16916,13 @@
       <c r="D545" s="4">
         <v>-20</v>
       </c>
-      <c r="E545" s="2"/>
-      <c r="F545" s="2"/>
+      <c r="E545" s="1"/>
+      <c r="F545" s="1"/>
       <c r="G545" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -16942,10 +16949,10 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -16964,18 +16971,18 @@
         <v>-60</v>
       </c>
       <c r="C547" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D547" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E547" s="1"/>
-      <c r="F547" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E547" s="2"/>
+      <c r="F547" s="2"/>
       <c r="G547" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -17002,10 +17009,10 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -17032,10 +17039,10 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -17059,13 +17066,13 @@
       <c r="D550" s="4">
         <v>0</v>
       </c>
-      <c r="E550" s="2"/>
-      <c r="F550" s="2"/>
+      <c r="E550" s="1"/>
+      <c r="F550" s="1"/>
       <c r="G550" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -17092,10 +17099,10 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -17114,19 +17121,17 @@
         <v>-60</v>
       </c>
       <c r="C552" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D552" s="4">
-        <v>0</v>
-      </c>
-      <c r="E552" s="1"/>
-      <c r="F552" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E552" s="2"/>
+      <c r="F552" s="2"/>
       <c r="G552" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H552" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
@@ -17147,12 +17152,12 @@
         <v>0</v>
       </c>
       <c r="D553" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
@@ -17175,12 +17180,12 @@
         <v>0</v>
       </c>
       <c r="D554" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
@@ -17200,15 +17205,15 @@
         <v>-60</v>
       </c>
       <c r="C555" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D555" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
@@ -17231,12 +17236,12 @@
         <v>-5</v>
       </c>
       <c r="D556" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
@@ -17259,12 +17264,12 @@
         <v>-5</v>
       </c>
       <c r="D557" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
@@ -17287,12 +17292,12 @@
         <v>-5</v>
       </c>
       <c r="D558" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
@@ -17312,15 +17317,15 @@
         <v>-60</v>
       </c>
       <c r="C559" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D559" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
@@ -17343,12 +17348,12 @@
         <v>-10</v>
       </c>
       <c r="D560" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
@@ -17371,12 +17376,12 @@
         <v>-10</v>
       </c>
       <c r="D561" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
@@ -17399,12 +17404,12 @@
         <v>-10</v>
       </c>
       <c r="D562" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
@@ -17421,20 +17426,22 @@
         <v>-45</v>
       </c>
       <c r="B563" s="4">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="C563" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D563" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E563" s="2"/>
-      <c r="F563" s="2"/>
-      <c r="G563" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E563" s="3"/>
+      <c r="F563" s="3"/>
+      <c r="G563" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H563" s="1"/>
+      <c r="H563" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
@@ -17457,12 +17464,12 @@
       <c r="D564" s="4">
         <v>0</v>
       </c>
-      <c r="E564" s="3"/>
-      <c r="F564" s="3"/>
-      <c r="G564" s="3" t="s">
+      <c r="E564" s="2"/>
+      <c r="F564" s="2"/>
+      <c r="G564" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H564" s="3" t="s">
+      <c r="H564" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I564" s="1"/>
@@ -17490,10 +17497,10 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H565" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H565" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -17520,10 +17527,10 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -17550,10 +17557,10 @@
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -17580,10 +17587,10 @@
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -17607,13 +17614,13 @@
       <c r="D569" s="4">
         <v>0</v>
       </c>
-      <c r="E569" s="2"/>
-      <c r="F569" s="2"/>
+      <c r="E569" s="1"/>
+      <c r="F569" s="1"/>
       <c r="G569" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -17640,10 +17647,10 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -17665,15 +17672,15 @@
         <v>0</v>
       </c>
       <c r="D571" s="4">
-        <v>0</v>
-      </c>
-      <c r="E571" s="1"/>
-      <c r="F571" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="E571" s="2"/>
+      <c r="F571" s="2"/>
       <c r="G571" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H571" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -17700,10 +17707,10 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -17730,10 +17737,10 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H573" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -17757,13 +17764,13 @@
       <c r="D574" s="4">
         <v>-20</v>
       </c>
-      <c r="E574" s="2"/>
-      <c r="F574" s="2"/>
+      <c r="E574" s="1"/>
+      <c r="F574" s="1"/>
       <c r="G574" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -17790,10 +17797,10 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -17812,18 +17819,18 @@
         <v>-80</v>
       </c>
       <c r="C576" s="4">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D576" s="4">
-        <v>-20</v>
-      </c>
-      <c r="E576" s="1"/>
-      <c r="F576" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E576" s="2"/>
+      <c r="F576" s="2"/>
       <c r="G576" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -17850,10 +17857,10 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -17880,10 +17887,10 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -17907,13 +17914,13 @@
       <c r="D579" s="4">
         <v>0</v>
       </c>
-      <c r="E579" s="2"/>
-      <c r="F579" s="2"/>
+      <c r="E579" s="1"/>
+      <c r="F579" s="1"/>
       <c r="G579" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -17940,10 +17947,10 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -17962,19 +17969,17 @@
         <v>-80</v>
       </c>
       <c r="C581" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D581" s="4">
-        <v>0</v>
-      </c>
-      <c r="E581" s="1"/>
-      <c r="F581" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="E581" s="2"/>
+      <c r="F581" s="2"/>
       <c r="G581" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H581" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
@@ -17995,12 +18000,12 @@
         <v>0</v>
       </c>
       <c r="D582" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
@@ -18023,12 +18028,12 @@
         <v>0</v>
       </c>
       <c r="D583" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
@@ -18048,15 +18053,15 @@
         <v>-80</v>
       </c>
       <c r="C584" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D584" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
@@ -18079,12 +18084,12 @@
         <v>-5</v>
       </c>
       <c r="D585" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
@@ -18107,12 +18112,12 @@
         <v>-5</v>
       </c>
       <c r="D586" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
@@ -18135,12 +18140,12 @@
         <v>-5</v>
       </c>
       <c r="D587" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
@@ -18160,15 +18165,15 @@
         <v>-80</v>
       </c>
       <c r="C588" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D588" s="4">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
@@ -18191,12 +18196,12 @@
         <v>-10</v>
       </c>
       <c r="D589" s="4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
@@ -18219,12 +18224,12 @@
         <v>-10</v>
       </c>
       <c r="D590" s="4">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
@@ -18247,12 +18252,12 @@
         <v>-10</v>
       </c>
       <c r="D591" s="4">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
@@ -18264,34 +18269,6 @@
       <c r="O591" s="1"/>
       <c r="P591" s="1"/>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A592" s="4">
-        <v>-45</v>
-      </c>
-      <c r="B592" s="4">
-        <v>-80</v>
-      </c>
-      <c r="C592" s="4">
-        <v>-10</v>
-      </c>
-      <c r="D592" s="4">
-        <v>-15</v>
-      </c>
-      <c r="E592" s="2"/>
-      <c r="F592" s="2"/>
-      <c r="G592" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H592" s="1"/>
-      <c r="I592" s="1"/>
-      <c r="J592" s="1"/>
-      <c r="K592" s="1"/>
-      <c r="L592" s="1"/>
-      <c r="M592" s="1"/>
-      <c r="N592" s="1"/>
-      <c r="O592" s="1"/>
-      <c r="P592" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
